--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd70-Cd27.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd70-Cd27.xlsx
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7369423333333333</v>
+        <v>0.5205496666666667</v>
       </c>
       <c r="N2">
-        <v>2.210827</v>
+        <v>1.561649</v>
       </c>
       <c r="O2">
-        <v>0.09855931209400448</v>
+        <v>0.07725359616672718</v>
       </c>
       <c r="P2">
-        <v>0.09855931209400447</v>
+        <v>0.0772535961667272</v>
       </c>
       <c r="Q2">
-        <v>0.0699014367911111</v>
+        <v>0.04937587104888889</v>
       </c>
       <c r="R2">
-        <v>0.6291129311199999</v>
+        <v>0.44438283944</v>
       </c>
       <c r="S2">
-        <v>0.09855931209400448</v>
+        <v>0.07725359616672718</v>
       </c>
       <c r="T2">
-        <v>0.09855931209400447</v>
+        <v>0.0772535961667272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>0.61891</v>
       </c>
       <c r="O3">
-        <v>0.02759118820608773</v>
+        <v>0.03061701009865156</v>
       </c>
       <c r="P3">
-        <v>0.02759118820608773</v>
+        <v>0.03061701009865157</v>
       </c>
       <c r="Q3">
         <v>0.01956855884444444</v>
@@ -641,10 +641,10 @@
         <v>0.1761170296</v>
       </c>
       <c r="S3">
-        <v>0.02759118820608773</v>
+        <v>0.03061701009865156</v>
       </c>
       <c r="T3">
-        <v>0.02759118820608773</v>
+        <v>0.03061701009865157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.06717</v>
+        <v>0.7422533333333333</v>
       </c>
       <c r="N4">
-        <v>3.20151</v>
+        <v>2.22676</v>
       </c>
       <c r="O4">
-        <v>0.1427242490082111</v>
+        <v>0.1101561348294152</v>
       </c>
       <c r="P4">
-        <v>0.1427242490082111</v>
+        <v>0.1101561348294152</v>
       </c>
       <c r="Q4">
-        <v>0.1012246317333333</v>
+        <v>0.07040520284444444</v>
       </c>
       <c r="R4">
-        <v>0.9110216855999999</v>
+        <v>0.6336468256</v>
       </c>
       <c r="S4">
-        <v>0.1427242490082111</v>
+        <v>0.1101561348294152</v>
       </c>
       <c r="T4">
-        <v>0.1427242490082111</v>
+        <v>0.1101561348294152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4278389999999999</v>
+        <v>0.03285233333333334</v>
       </c>
       <c r="N5">
-        <v>1.283517</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="O5">
-        <v>0.05721956199239486</v>
+        <v>0.00487554032782279</v>
       </c>
       <c r="P5">
-        <v>0.05721956199239486</v>
+        <v>0.00487554032782279</v>
       </c>
       <c r="Q5">
-        <v>0.04058195527999999</v>
+        <v>0.003116153324444445</v>
       </c>
       <c r="R5">
-        <v>0.3652375975199999</v>
+        <v>0.02804537992</v>
       </c>
       <c r="S5">
-        <v>0.05721956199239486</v>
+        <v>0.00487554032782279</v>
       </c>
       <c r="T5">
-        <v>0.05721956199239486</v>
+        <v>0.00487554032782279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.994343666666667</v>
+        <v>4.187059333333333</v>
       </c>
       <c r="N6">
-        <v>8.983031</v>
+        <v>12.561178</v>
       </c>
       <c r="O6">
-        <v>0.400466140443878</v>
+        <v>0.6213919853887639</v>
       </c>
       <c r="P6">
-        <v>0.4004661404438779</v>
+        <v>0.6213919853887639</v>
       </c>
       <c r="Q6">
-        <v>0.2840234779288889</v>
+        <v>0.3971565346311111</v>
       </c>
       <c r="R6">
-        <v>2.55621130136</v>
+        <v>3.574408811679999</v>
       </c>
       <c r="S6">
-        <v>0.400466140443878</v>
+        <v>0.6213919853887639</v>
       </c>
       <c r="T6">
-        <v>0.4004661404438779</v>
+        <v>0.6213919853887639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.044547333333333</v>
+        <v>1.049175333333333</v>
       </c>
       <c r="N7">
-        <v>6.133642</v>
+        <v>3.147526</v>
       </c>
       <c r="O7">
-        <v>0.2734395482554239</v>
+        <v>0.1557057331886193</v>
       </c>
       <c r="P7">
-        <v>0.2734395482554238</v>
+        <v>0.1557057331886193</v>
       </c>
       <c r="Q7">
-        <v>0.1939321297244445</v>
+        <v>0.09951777761777778</v>
       </c>
       <c r="R7">
-        <v>1.74538916752</v>
+        <v>0.89565999856</v>
       </c>
       <c r="S7">
-        <v>0.2734395482554239</v>
+        <v>0.1557057331886193</v>
       </c>
       <c r="T7">
-        <v>0.2734395482554238</v>
+        <v>0.1557057331886193</v>
       </c>
     </row>
   </sheetData>
